--- a/GitHub Assignment.xlsx
+++ b/GitHub Assignment.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pravesh_kothari\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avinash_perikala\Desktop\GIT DOCUMENT\avinash_perikala\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A49CE9-D07E-4C76-8AAD-0B27A0D6D512}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E441B96-E828-4176-86BE-66EE3353702B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{ADCF3924-E342-496B-B30C-BDCC3C567CCA}"/>
   </bookViews>
@@ -460,7 +460,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,9 +550,7 @@
       <c r="D5" s="2">
         <v>44481</v>
       </c>
-      <c r="E5" s="2">
-        <v>44488</v>
-      </c>
+      <c r="E5" s="2"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -563,9 +561,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="2">
-        <v>44481</v>
-      </c>
+      <c r="D6" s="2"/>
       <c r="E6" s="2">
         <v>44488</v>
       </c>

--- a/GitHub Assignment.xlsx
+++ b/GitHub Assignment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avinash_perikala\Desktop\GIT DOCUMENT\avinash_perikala\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E441B96-E828-4176-86BE-66EE3353702B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5888FBE4-DE58-41D9-810E-6EB25D376977}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{ADCF3924-E342-496B-B30C-BDCC3C567CCA}"/>
   </bookViews>
@@ -460,7 +460,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -534,9 +534,7 @@
       <c r="D4" s="2">
         <v>44481</v>
       </c>
-      <c r="E4" s="2">
-        <v>44488</v>
-      </c>
+      <c r="E4" s="2"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
